--- a/application/qlshopthoitrangtreem/qlshopthoitrangtreem/DanhSachSanPham.xlsx
+++ b/application/qlshopthoitrangtreem/qlshopthoitrangtreem/DanhSachSanPham.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\New folder\application\qlshopthoitrangtreem\qlshopthoitrangtreem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>BM.08.01</t>
   </si>
@@ -36,19 +36,25 @@
     <t>Ngày 31 tháng 7 năm 2024</t>
   </si>
   <si>
-    <t>DANH MỤC KHOA</t>
-  </si>
-  <si>
     <t>Số TT</t>
   </si>
   <si>
-    <t>Mã Khoa</t>
-  </si>
-  <si>
-    <t>Tên Khoa</t>
-  </si>
-  <si>
-    <t>%sanpham.ten</t>
+    <t>Tên Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh mục </t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày Tạo </t>
+  </si>
+  <si>
+    <t>Danh Sách Sản Phẩm</t>
   </si>
 </sst>
 </file>
@@ -150,9 +156,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -447,7 +451,7 @@
     <col min="4" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -455,7 +459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -467,7 +471,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="2"/>
@@ -475,9 +479,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -485,7 +489,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -493,60 +497,63 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
@@ -655,11 +662,10 @@
       <c r="F42" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
